--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/62_Niğde_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/62_Niğde_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCC238A7-9E3F-4C2C-8A67-9AC35BD54CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C01A0CBB-D16F-4C25-A38C-3B293870115A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="679" xr2:uid="{BA06F2F6-C407-4435-9580-DBB879261B20}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="679" xr2:uid="{B8E9996B-AFD7-4144-B6FA-718D6A0932A3}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -968,14 +968,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{550BA25B-B071-429E-A4AB-51B158782A08}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{AFB75932-FBE8-41F8-BD8F-084BB3C04EA2}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{0A33A9A0-0615-45C1-A016-49D363BB940C}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{C6C651F4-EAF5-448B-A399-99181A15EE44}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{D5E2B984-E16B-41A8-80DB-4DF2EB6D875B}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{53A40C63-3426-481E-9879-FE76EF631815}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{5E7D4E90-3613-4394-8AB6-9F44F8D841A5}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{19A93D56-3E02-409C-A5F5-B717EC67C1D9}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{3656298F-BEC2-4BBA-9450-C1F561A6E7FB}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{0689FCD2-4904-48F0-87B5-42CE51C3DB2F}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{30D70352-B457-4213-ADE4-B66658163529}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{B817ECE4-5821-41E8-8F91-652424BA4C9F}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{132E5496-1F8C-436B-A2DD-64CBED542AD9}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{D275571E-115D-41F6-BE9E-B2B9F1334129}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{5B300A9F-00BA-4028-9536-C7946916566F}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{22C5D31B-7DBE-4ABF-AADC-022937CA75E7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1345,7 +1345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5E79ED-2F3C-420E-A7C1-B177FD1B45E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D484AB44-E15D-40FF-99EE-6CCE4DD9814D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2566,18 +2566,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{49A154FA-FD12-4871-868A-F1AE2FDFE257}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6E4FE274-22A9-4CE5-B838-C214DB427F46}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0A7AF637-61B2-4685-93F5-E8A091AB8206}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6A94BFC2-FBC8-489F-8DFE-B132FE41EEE7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FEFD7B8B-F685-4DFC-A6A7-CF3FB9891E2E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E17E60A4-37E6-4947-B90E-F4E24CB82B71}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7502EA22-3FD6-4BF7-9F0E-5BAD5602DBAE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8F7B823E-35DA-4F35-B578-0071E1F48428}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{21DBA26B-4104-46B8-B39C-E3BDACD87703}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{619B241C-F9F4-4782-8595-B10CFA26CA40}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{96DA48F1-111B-4383-AECA-5770393EA788}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{99DF9272-FABB-405F-B9E6-49D8F167A0E5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E851DC1D-3CA6-4F50-ABBD-A9B47B115264}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{64D6FB79-99AF-4B4E-8CD7-243CBC5F961B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{67B4200B-A501-42B8-A2AA-B46AD32ED206}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{018E7EE7-F6C1-4FAD-B069-AF99ECF2D788}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{205A2F0A-133C-440C-94EE-D0DE4EE9BB7A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4DAABC25-3C45-49E6-A17F-0ED5C268FD5C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F1A9F602-F451-4135-B462-F08051F74791}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{406CC563-BF28-42B3-B71F-BFC015E17475}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3BE13660-42D1-4009-8794-CECFAC97B015}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{240F19B6-BC0A-442F-935F-8F3C2D1449B2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{72C7B159-0D76-4394-9E7A-E3D5F6538913}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D0880BF2-7C9E-45E3-A42F-92C2A77E6C0C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2590,7 +2590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E85A0C-3539-4DA4-AF3B-30D3B8DB6B26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491DA596-0339-4349-8C21-DDC613FBDB78}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3804,18 +3804,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9B0B0F0D-F28A-44E9-81BA-54807E2C1DB6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5EF59DDB-672B-48FC-837D-57D0FEB2F97A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9211C085-1A61-4DF4-BC5F-FB9DBD67EBB2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{71912E33-6043-4D38-B734-5CEB94C8E168}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{47C7C186-C13C-4F6F-B495-30949A4D8E5E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8B1E132D-B93F-4933-83BF-B1F7468C228A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C590B47C-A262-4859-841D-FB76DADE2BD4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B35176FE-026B-4D28-AAA8-81E2360017DF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C3F2D922-C8BD-4448-AE4C-52E015B8DB4C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D66348F7-700E-45B5-9548-993A9D22C0D1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C1401FF2-7A1C-4460-A4EB-4F5366DEE055}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BF3A20B6-76FF-48DE-9A9D-640416E9B9E4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{034680E3-F989-492E-8793-3093F51B6843}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{37A67242-88FF-4D11-AB70-0DC7CB3FDE93}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{17958F3F-D9A8-4A97-B9AD-1C7691276218}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{514CACB1-5F6D-41E0-B83D-195002348A5C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4749167F-046C-4517-8927-BA8E0B23ECF2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{649EE26A-FCFA-4B2B-B33C-33DE9363C016}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{99D34C36-6643-4AAB-8AFD-C5A87463FDEB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4BFF836C-5CB5-4AE7-A067-D623C7FAFD7D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B6C25717-F594-4CE5-B5A6-4B8D1C176D75}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D8B1799D-FA85-49C5-B973-6349C2EB894D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0718F0D1-6255-4AF8-95BA-A4725AE0002B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F92726BA-67E0-4DF8-9369-93FCE3C56678}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3828,7 +3828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DC3521-3B91-4D83-B30C-89EB61EBDCB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B903407F-CAC9-48EB-91B4-7CFEC10A70B7}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5034,18 +5034,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8ADFE27F-2BAA-4944-8CDA-6125A0B3960C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{701C1735-CED9-49A3-8432-A2D7C6C3F5FF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E983D485-22D2-4999-B7A9-738F3CB41A98}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A2375BB8-6684-4A6A-97C2-9890D2E4ADE9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A95D4CC9-1712-4B30-B2A3-F08C8A241882}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2C04826A-53E6-4743-B9CD-F84599508B2C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{06DD2861-6133-455D-A364-59CEFD44EEDF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A24405C4-0C05-4FF4-A108-F10409E71E6F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DA254924-BF2B-4FF7-9F6B-D1F5FA32706D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{73395EC3-ECEB-4696-8DE6-7D1FCFE0AFF1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F1D95437-06E7-4FF8-9D3A-E165D01EF585}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{495D82B5-48B8-4920-86F6-FC9D3E1766F2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A637C457-142E-4DF5-9F4F-A4110B6683DD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0A56B845-17F8-40EB-AB0D-EE4AD10997AF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B77D6EAB-9329-42A7-8F99-B6245528B26F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6C34C18D-673E-415A-A25F-CE2A9743F7AC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9161CE8D-E108-4C22-BADD-55B8D8A193AB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5BDD7428-908B-46E5-BC03-7DF654590A67}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C3FA6D8C-1B2A-435B-AA43-2BB0F7A17B97}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7A25C0FB-6536-46E3-BF67-47CB1EC4CA5A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FB63C3D5-6A86-4F0C-B921-273AC7CFAA0A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5EE369F7-011D-45DF-80A6-C5CD9FC96277}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5BA411BB-0DDB-4BB6-954F-501DC532ECEB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A0AC68FF-617E-4BE1-925D-E99712DF5D4F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5058,7 +5058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07EB0C9C-8185-4C3F-AE60-B4584E18288D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4F4F31-6142-47C3-B516-1C32504B9FF7}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6256,18 +6256,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8D3A3343-E3A0-44A4-8745-5307861AD803}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{84E1BA09-D803-472B-B8CC-431E3767801A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6B5340BB-AA11-4321-977D-A12C1B9C1704}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9401A518-B976-499E-8D1D-D758BAB79E23}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{03E39007-3BAD-4DC4-BA54-A92B052B887A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F0416AA4-2A8E-43AB-83A4-AF0092A360D3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CD1F45D4-216B-4A07-8EBC-8AC6F2C78637}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0CC075E6-6B18-4873-85F0-44904031A014}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D390C9D2-882E-4050-A9EF-206CDD375DBB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{806E81A0-AC9D-45E0-9D3D-8674CE1141DE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3C8A7B1A-093A-4397-BEAF-5B99804ECDB2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{546967FC-5F6B-4403-B738-E77B44C052BD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FC3DF8AD-411D-4874-A6D8-BD61288A9C68}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BF70D706-2178-479C-A8C0-F65FA407ECC5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B9FBE9AF-C4D6-4F26-8FD7-A7063591D18C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3CA8C4F5-4F52-423A-A65F-D3F3E7C394FB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2221A534-79F9-4038-8C3B-B751A2B2C24D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{46C5FA6F-8C44-485E-B65E-9A7B83C3271A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CC2AD579-C774-4EC7-BC10-D769A4D3194F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{99711441-3AEA-44E5-B829-7ABCFB03F746}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{15AF4C08-BF06-47B9-997C-D75670F7169B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B8D15C3F-4AF2-4D5F-9633-DCC4037FA942}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F3D9CCA5-F269-4559-B3DD-30172D4F0697}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{86F7C11D-5E01-4AD3-9403-2B47144009CC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6280,7 +6280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4BBA43-76EA-46AC-BFEE-D4E2B9F3388C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B622062-88DE-4A1D-98EB-591A993AB317}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7501,18 +7501,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6F07E1F8-BB80-40FD-9521-7B2B8BB19968}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{55E268FE-D8A8-481D-8F8D-66AFD5C9B0BE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1B5B836B-48C1-4EEA-AB2D-6758A652CD2C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3F2E47EF-CE65-4B1C-B179-5AC1F5C0060A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8C89DF28-F0D5-4591-9CE9-EEDECB9A12F7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5C114BD6-7859-4F9D-9BA5-F199E182E35F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DAC12B4F-00BA-4670-959B-E331298682DE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3C06CD76-D335-429E-A8DE-72A67B949B96}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B630E04B-3155-47A3-8420-55D98C6ECD53}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CB3D658C-D310-40ED-AEBC-A6539AECE452}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F3DD2933-46EB-4065-9441-BA3BEBC0F810}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3FF10852-FBFD-46A3-AB8D-48053217A886}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B77908D6-62F6-49A3-B89A-40FA57FFAEB8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{81BB4983-7863-4F7C-8EB6-2AE0E3006494}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2A9401E5-BA79-4770-9599-A6F7A4C888E3}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F33AA4BC-0601-44D4-9D6C-BF7A7EE7A129}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{09117C3D-4B84-4EFE-ADFE-100FFDA049A4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7E2D94BB-B09B-4702-8F30-05E4B972174D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{969195C4-BAE8-45C9-A718-647B5E6E2748}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5051B9AF-42D2-49AC-B03B-410D36B74971}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B9449ECF-2FB3-4574-AC11-2A1A2E3A31C9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{88EE1872-9946-4356-924E-EABEC2AE03BB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9416FC3B-1000-4EFA-A6A4-9E9E255EC224}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{61694FB8-B2F4-46D8-8E79-05D8260F52E7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7525,7 +7525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01185D73-6945-4999-8A4A-C6F4F52E7729}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242C38C9-DCE0-4C60-9C82-CE31DA1B220B}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8746,18 +8746,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F1705116-4B3E-48EC-AE7D-87031DC5E401}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E75A671A-8288-4E0E-A94D-C85975D714D5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{89A0041B-29CD-44CE-A75C-A512E9AE2D37}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D0BCBCCE-4478-4A06-98B4-A95B23D50DF9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2418B22C-82BA-4482-940C-DB32236D71CC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5CD78527-2C13-435A-A7D1-49DD0EB4EF9C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{52126AD5-A763-41CB-A8FD-75BF3522F4D8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9005DE11-622F-4324-B515-F6942FC77CF0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5F6D561B-59ED-4968-8F9D-3729501ADEBC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6110DA09-2456-423C-BBCD-D13A30BFE4EA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5923A29A-5179-4248-87B2-994F110D37A3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{558A9F4B-24DA-4876-B201-D2535C62DB94}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DACB106B-5614-4D8C-970D-C338D7AAE0D5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{07EBB5BB-D879-4724-9016-DB1A44DEACE2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{794AF5F8-2058-4191-943C-0DD4075B61A4}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{19118E0D-5D46-4546-A12F-437F4DF76BF4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B54E27F3-AB2D-4D00-83B8-727B6041C0F4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{588489BA-FA26-4A2D-B039-B196E3413563}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{08CE302B-5319-4B5F-B31F-17BA523D0841}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{906D4139-BB29-4097-A2C0-0C3FBC7DC357}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F5AC3602-CA48-421D-A91A-D657E9BCEA82}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{093202EF-2137-4AB4-908F-C5C4F70DF76B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1CD8ECF7-0222-45E5-AB3E-1B913A4BB2A0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9E695C9D-6A0D-4E9E-8F1A-5F0DD0CDD9DB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8770,7 +8770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E395CD4-A8A5-4F34-A47D-0D56F768791E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81A87B9-5388-498F-A4B4-8BCC54EACB68}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9991,18 +9991,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B0D12CF3-2156-43C7-9FF7-F1E1CDA719EF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C5077965-2DB1-4A53-9A9A-07DF526169E3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C1075DB5-8528-4CF7-916B-EDFAD2BDB975}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{39F6EE7D-F59F-4368-85FD-345E5449D579}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{095F75C1-B1D0-4832-B599-7F65524D7B9A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F3AC9019-E872-40B9-BEB3-8F36B596BE92}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E3EBEBA1-1493-45B7-A65F-DA0AAF8CFCDB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C08F5DFD-BA65-4BC4-9DE6-D490BD2A20CE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C3479665-400C-4F53-A128-AF509A1B4D92}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A2BC822F-9B96-431B-90C7-2129006D7E07}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{40C40CF9-95A9-4095-97D9-6914C412F021}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{38AC2D96-8A69-49AB-980F-D081D5EB3BD3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{38D59DAF-D14C-4F97-A8DF-4A70033948BF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1B01AE1B-7678-4E10-B36B-2EB7BD238582}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D2501E0E-A38B-4771-AA1A-0112C1633D8B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{50DABA27-5125-4C74-A91C-F9C5B589AC18}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{67B7061D-DD5A-4C99-B0D8-391DBB796189}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{82245652-6BD3-4E22-A77F-ED6B93311A08}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6255D570-A748-482E-9B30-6C3DC0FAC398}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3406E104-8F5D-423E-9663-DE8EC56E08BB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D73FC8C9-FEC9-4DDA-B443-2D04B083619F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5C2F3C63-D5F0-43B0-9CAA-8D076666EB39}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{36D85105-4CDF-4345-8B5C-65C4DF7F8288}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B9F65902-3465-4CA6-880A-FF745863C5B6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10015,7 +10015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9267C9F-9FB3-4A14-A4F4-D60E621450FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17ECC7A5-0EA9-4CA7-ACD9-2EAA0A46C0FA}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11236,18 +11236,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{16C20F8F-3B7D-4264-99DB-7A35DA84185F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{82FB0E71-B7F0-4D4D-B96A-07EB14B4AB36}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A6464A0A-0934-46AE-92BB-EABD7B9A03E1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B8E0BC45-499B-4494-BA29-44000DE4E3ED}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A6624EA3-7A2F-4F13-BC9F-F37C5E9287FD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F91B98D8-587F-4BCF-8241-61123F0647E0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{16B608F9-09F3-4031-93E7-638AE93909DD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E68D20E1-9DE4-4138-85A0-B9429C2DCEFE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{591E4FE6-927E-4EF2-9278-B263BA973CD1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{563BE5E0-C537-4ED0-A115-6C83A0CA27B3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1D9D5847-09EF-449A-BF28-6A0B746DBA6C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EC203A40-37BF-42CC-BA9B-ACCA1C13F8BE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D0945CC5-B74B-47E0-98D2-95F9496B2E06}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C24A9958-CF68-44AD-A038-2573260F7FB9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{271E0152-7726-4555-8BD6-7AC149410D8E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2B24307C-E37A-4BF5-809A-58078492EAAA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{65A89C8D-3FD2-49D2-A2C2-F857162116F1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A6543D95-BB04-4246-92FF-8A50956EEE45}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3A7FF5C4-2406-41EC-A331-7C48C2BB4E28}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E2004E32-5C74-47C1-97A9-D7B58A2D768E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{586377D0-CE8F-466C-B753-019F97595880}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E20EEBD3-2CA7-4536-9386-90BC2A0E9E3F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{89DF72B7-5C88-4113-81BB-20F9D2CEE572}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F4779952-4D1C-4EA8-95BA-612F6237C920}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11260,7 +11260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2CD0731-01D6-4C2E-B082-B32B34172475}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FE010C-C0A0-412E-A64A-75195BA1FED3}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12473,18 +12473,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5D601B60-2DAE-48A1-982F-EF080CFF349C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B51A5005-4C9C-4CD0-94D5-B1DF9B1AF341}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BCA76947-EB3A-4A63-ABA4-758020F010CA}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5C3E1059-484E-4285-88A2-274959D067D5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1823EA4D-8DF6-4C3D-8519-E70D15CC1EDC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7D835331-1AC7-4F2E-9284-38E8CFBB1DED}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D866A9E4-6834-4F80-99C9-B70EF51CC332}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9041B605-1EA1-4B4E-842D-2E6012E3066F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8BE34862-F2F5-4EAE-9C05-51D8AEA231D3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{29B93DCC-B3F4-4DCD-8733-2E8C8023D273}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FEA2A0FF-93AF-461F-A52E-4F2615CF6211}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{40992CB5-804D-4BAA-ABD6-C47300ADE027}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{788AABB6-008D-4085-B381-217A17E22EFC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A5304573-3E2F-48B6-87EB-513511532EF1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1128B35C-69CE-4E0B-BB06-63C5AB4E3773}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F1E45B96-EE55-4E6B-8E67-9D5AFA046212}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{343EE06B-8EFF-4AE8-804F-AE9043D16FDB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{62B615E9-FD87-4117-AB6C-CB2A38DCC0D7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{58CBEDF3-2EC3-46A2-BBED-1AC470D40B30}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{58D07650-D459-49F7-8D86-11148F24D25D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{89FFB0A7-BF2A-437E-A5EE-461D21D225BE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{03797A97-F163-4977-B648-9FAC1C573727}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{25B51870-5869-4F4A-9CD0-A29737893D00}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D417208C-1853-4E3A-B6D3-2E7C9695C50D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12497,7 +12497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F878AEF3-9C7E-465C-9320-521746B16675}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04239B63-F932-45F1-B17D-6F3F8970BE55}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -13711,18 +13711,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{13EE2902-E313-4CB0-B550-A4F5204E5530}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0A8AA1CD-C04C-456E-A85B-9B0CFEB62106}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{70331B2F-6C0C-4E03-B1A3-075F410D6A1D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1E90AB5C-337A-450C-BC3A-F756A7D157C1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AA08C6D2-2C32-4D8E-B7D7-003EDED0E8A0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{40A40ACB-B160-4622-9A6F-603390C09398}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EC91FCF8-455D-4E6C-9CC2-4710EE182A3C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{55AD21E4-8650-4BE3-8577-F4B8831D1B2A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{809AD344-5319-4C32-B243-BE25737A9F7C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AA8409FE-4218-4491-842B-47291FB33BE5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E50CD95D-2C6B-4BB1-9536-6A4F68A4C285}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{82AE38D3-5E11-49A2-9CAE-151A1EE4D3F7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{83D468F2-38E8-4B35-8C51-DB925C6B2D10}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5F8F50B1-1A25-4C1A-A43D-0D3EFA7CDC1F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A39C0B44-FAF5-46EA-A6BE-26717E761484}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3CBBBBBF-0835-4BB9-BC49-64D7868F6D40}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{637B3C69-A18B-49C1-8148-FD5B9209A1F4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5FF1E69D-B9A0-455E-99B4-F07132A76EF7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9FC92C61-A35A-45B9-AC7D-DB7BA5185883}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2C4BCE45-3319-4BA0-A5DE-97E3EC6173C9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{31DE46DD-2559-47E3-9D89-4FC38C692630}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1E401E72-0EE6-4CDC-9AA6-41C0515D8DB8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D5232CC2-B349-4CF5-AE9A-EE83E3FD366A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A1B9CAC6-0CF2-45B1-B0A9-8AFB8C1A81CB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13735,7 +13735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA12DC2-9F72-405F-BDAA-2B34DB943EFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBF2A45-37EF-4F3C-8907-62EC31C78741}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14949,18 +14949,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{24E75237-4593-4AFF-94D4-2464FC75DA4F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{30E8B15F-6489-49A3-BC40-FCEA63002336}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C173C3C6-36C5-4F86-BC25-1FADBCDCDD17}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{38166A24-A035-4DA1-98B0-C94C4A8B04F3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DA723D67-CE85-4F6B-AB79-D93235F90461}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E86C8742-D295-474E-802F-0E94133236F3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B3426EC5-FFF7-4CDD-9B56-117A2AF5BDCA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FD8A67C0-871F-40C9-9862-7EDFBB203EA1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C436B494-94A9-43F8-90BA-DD450C04BFC7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D6486E71-5446-4309-AD87-234BC85D321D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1434095E-39E0-426D-A64B-6E7330564931}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D3E402A2-D6CB-47E7-B766-1E2D1840E2E2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C952AE8A-7463-41FF-94A3-A74687EC6BEB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1B4FE474-1289-4E01-A5AE-9A467447B766}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{85EA68CA-390E-4DA8-BD8D-08C62650443C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{226393F6-8891-4CA7-80C0-C0D44A5026FD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{115FC5C9-C51D-48DD-BC25-46B8D74CAC31}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5E82D5C7-8C47-4DE3-8289-BD24B410E149}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6E38C513-B306-4A91-B0FC-99CED5D170AE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A47026DC-BCF2-4097-9C9A-6E699CEA0487}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DFD77E1C-749E-464C-9413-2CB07305D805}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AE7C4F0A-50C2-4F24-A20D-0301D9AC569C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{89BC613E-19C3-46CF-B7A9-E147A683D1FB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{47445630-7AFF-4018-BD9F-BD30FED1DBBF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14973,7 +14973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E792B6-25C4-4540-B952-6750B03D44F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5522A2-C6F0-4A0E-83D6-FB41F8A32D56}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16187,18 +16187,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9084C691-E394-4923-87E5-E31D9BDDE7B0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7C4290C5-E996-4E3B-A45D-916E80163E2A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F14188EE-B7BC-4140-829A-BA49F2EBD50A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1D3E1B03-9FC4-4F64-A775-07CEB889C8CC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0696938F-8317-401E-802C-7C9987B0DD1D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CA084B30-F081-469D-82B9-C0FFDAFA3D47}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{88122BAA-7340-482F-B6C1-F8DCFE026A86}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CA1E04D4-77ED-4A04-9D4C-BCA445CE7B3B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0BEEC01F-870D-40CA-97CE-3F8445FF2532}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{987EC3AE-B597-4E6D-831C-8058D5591C01}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0D78626C-8547-4CFB-932F-E2F9492D2072}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5CD4E3C6-8264-4CFA-9726-CD496DE516AF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CCC036DF-33C6-4E36-9108-B1932C070EEC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AD799B96-A518-4D39-8BB5-6DDD8A20646C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CB6525BB-8E7A-4CC5-BEB7-6617E0BB1C92}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F73B3347-02A0-4EE0-BB13-4809180B39B5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5BCA9F22-B4BC-4411-86FA-B6FA8FD30E45}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E5D348BF-5882-4E13-A85C-129A8407BA40}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A8315790-B634-4FE7-8FBA-91A2805E2990}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E0D67B97-10EE-4843-AA46-B40876352AC9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C155C9F2-A87D-4443-9D53-4862D8DA982F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{39B48780-BDEC-47C1-B251-826129BE077A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{207A28EC-CD2D-46B4-A50B-57661536B410}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{453C3514-5239-4BFC-B471-060829A34693}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
